--- a/NformTester/NformTester/Keywordscripts/600.40.20.30_CreateNewUser.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.20.30_CreateNewUser.xlsx
@@ -3978,35 +3978,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4733,8 +4705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6627,7 +6599,7 @@
         <v>799</v>
       </c>
       <c r="F70" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
